--- a/config_7.13/rank_server.xlsx
+++ b/config_7.13/rank_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2736,9 +2736,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2787,8 +2787,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2796,7 +2805,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2816,8 +2839,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2831,17 +2870,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2849,7 +2887,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2873,67 +2925,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3004,7 +3004,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3016,25 +3142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3046,43 +3166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3094,91 +3178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3207,32 +3207,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3252,22 +3240,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3289,18 +3296,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3310,10 +3310,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3322,136 +3322,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3909,10 +3909,10 @@
   <sheetPr/>
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6050,7 +6050,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9781,7 +9781,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11167,7 +11167,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -11986,10 +11986,10 @@
   <sheetPr/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -12661,7 +12661,7 @@
         <v>226</v>
       </c>
       <c r="C58" s="4">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
     </row>
     <row r="59" spans="1:3">
